--- a/parabolic/2025/07/28/parabolic.xlsx
+++ b/parabolic/2025/07/28/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>5255</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>194</v>
+        <v>774</v>
       </c>
       <c r="D2" t="n">
-        <v>1637600</v>
+        <v>198200</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>5287</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>868</v>
+        <v>791</v>
       </c>
       <c r="D3" t="n">
-        <v>133700</v>
+        <v>132800</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>6081</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>242</v>
+        <v>735</v>
       </c>
       <c r="D4" t="n">
-        <v>225300</v>
+        <v>3245100</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>9274</t>
+          <t>5255</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,16 +551,131 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>775</v>
+        <v>197</v>
       </c>
       <c r="D5" t="n">
-        <v>103700</v>
+        <v>2574100</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>5287</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>871</v>
+      </c>
+      <c r="D6" t="n">
+        <v>235600</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>6081</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>248</v>
+      </c>
+      <c r="D7" t="n">
+        <v>561000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>7897</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>127</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1300700</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>7971</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>506</v>
+      </c>
+      <c r="D9" t="n">
+        <v>100500</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>9274</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>772</v>
+      </c>
+      <c r="D10" t="n">
+        <v>116100</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/28/parabolic.xlsx
+++ b/parabolic/2025/07/28/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>774</v>
+        <v>790</v>
       </c>
       <c r="D2" t="n">
-        <v>198200</v>
+        <v>218300</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D3" t="n">
-        <v>132800</v>
+        <v>144100</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="D4" t="n">
-        <v>3245100</v>
+        <v>3948100</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>5255</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>197</v>
+        <v>293</v>
       </c>
       <c r="D5" t="n">
-        <v>2574100</v>
+        <v>107600</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5287</t>
+          <t>5255</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>871</v>
+        <v>194</v>
       </c>
       <c r="D6" t="n">
-        <v>235600</v>
+        <v>2912200</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>6081</t>
+          <t>5287</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>248</v>
+        <v>869</v>
       </c>
       <c r="D7" t="n">
-        <v>561000</v>
+        <v>278600</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>7897</t>
+          <t>6081</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="D8" t="n">
-        <v>1300700</v>
+        <v>732100</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>7971</t>
+          <t>7897</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>506</v>
+        <v>132</v>
       </c>
       <c r="D9" t="n">
-        <v>100500</v>
+        <v>3050700</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>9274</t>
+          <t>7971</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,16 +666,39 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>772</v>
+        <v>508</v>
       </c>
       <c r="D10" t="n">
-        <v>116100</v>
+        <v>146200</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>9274</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>770</v>
+      </c>
+      <c r="D11" t="n">
+        <v>154400</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/28/parabolic.xlsx
+++ b/parabolic/2025/07/28/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>4056</t>
+          <t>3835</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>790</v>
+        <v>510</v>
       </c>
       <c r="D2" t="n">
-        <v>218300</v>
+        <v>114000</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>4166</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>788</v>
+        <v>883.2000122070312</v>
       </c>
       <c r="D3" t="n">
-        <v>144100</v>
+        <v>868200</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>4316</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>720</v>
+        <v>786</v>
       </c>
       <c r="D4" t="n">
-        <v>3948100</v>
+        <v>228800</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4512</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>293</v>
+        <v>806</v>
       </c>
       <c r="D5" t="n">
-        <v>107600</v>
+        <v>182900</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5255</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>194</v>
+        <v>745</v>
       </c>
       <c r="D6" t="n">
-        <v>2912200</v>
+        <v>4348400</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>5287</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>869</v>
+        <v>295</v>
       </c>
       <c r="D7" t="n">
-        <v>278600</v>
+        <v>123400</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>6081</t>
+          <t>5255</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="D8" t="n">
-        <v>732100</v>
+        <v>3400400</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>7897</t>
+          <t>5287</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>132</v>
+        <v>867</v>
       </c>
       <c r="D9" t="n">
-        <v>3050700</v>
+        <v>342700</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>7971</t>
+          <t>6081</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>508</v>
+        <v>246</v>
       </c>
       <c r="D10" t="n">
-        <v>146200</v>
+        <v>840100</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>9274</t>
+          <t>7603</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,16 +689,85 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>770</v>
+        <v>488</v>
       </c>
       <c r="D11" t="n">
-        <v>154400</v>
+        <v>4203700</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>7897</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>131</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3562500</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>7971</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>508</v>
+      </c>
+      <c r="D13" t="n">
+        <v>228200</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>9274</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>772</v>
+      </c>
+      <c r="D14" t="n">
+        <v>201500</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
